--- a/RE/RE-01.네이버쇼핑_list/Data/Config.xlsx
+++ b/RE/RE-01.네이버쇼핑_list/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE-01.네이버쇼핑\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C드라이브\UIPATH\RE\RE-01.네이버쇼핑_list\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50868E9F-49EB-43C3-BBE6-37E597518BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C66DE63-467D-4442-8426-01E7D8340E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1069,6 +1069,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1096,8 +1098,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5546875" defaultRowHeight="14.4"/>
@@ -1491,10 +1491,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.6">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="7" t="s">
         <v>37</v>
       </c>
@@ -1511,10 +1511,10 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.6">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="39" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1533,21 +1533,21 @@
         <v>45</v>
       </c>
       <c r="B9" s="10"/>
-      <c r="C9" s="38"/>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:26" ht="15.6">
       <c r="A10" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="39"/>
+      <c r="C10" s="41"/>
     </row>
     <row r="11" spans="1:26" ht="15.6">
       <c r="A11" s="11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="42" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1556,20 +1556,20 @@
         <v>49</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="41"/>
+      <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:26" ht="15.6">
       <c r="A13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="42"/>
+      <c r="C13" s="44"/>
     </row>
     <row r="14" spans="1:26" ht="15.6">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="15.6">
@@ -1607,10 +1607,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="34"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" ht="15.6">
@@ -1632,10 +1632,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="34"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="16" t="s">
         <v>64</v>
       </c>
@@ -1710,10 +1710,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="34"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" ht="15.6">
@@ -1768,7 +1768,7 @@
         <v>78</v>
       </c>
       <c r="B36" s="17"/>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="37" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1779,14 +1779,14 @@
       <c r="B37" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="36"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="15.6">
       <c r="A38" s="17" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="17"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="37" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       <c r="B39" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="36"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:3" ht="15.6">
       <c r="A40" s="21"/>
@@ -1830,10 +1830,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.399999999999999">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="35" t="s">
         <v>133</v>
       </c>
     </row>
